--- a/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
+++ b/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1D442-67A6-4C02-8DE3-A9E156F84A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310F3E5-4DC2-4EDD-8865-7BE781A7D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,9 +253,6 @@
     <t>12/29,31</t>
   </si>
   <si>
-    <t>FL(2-0-0)</t>
-  </si>
-  <si>
     <t>PARENTAL O. 2/14,18</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>BDAY &amp; SP 2/16,17</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2690,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3065,12 +3068,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K143"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111:XFD111"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3093,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
@@ -3114,7 +3117,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -3134,14 +3137,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
@@ -3233,7 +3236,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.75</v>
+        <v>68.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3272,16 +3275,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>42370</v>
+        <v>42583</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3290,16 +3295,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>42401</v>
+        <v>42614</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3308,16 +3315,18 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>42430</v>
+        <v>42644</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3326,16 +3335,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>42461</v>
+        <v>42675</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3344,16 +3355,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>42491</v>
+        <v>42705</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3361,35 +3374,41 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
-        <v>42522</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
+      <c r="A16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>42552</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
@@ -3398,16 +3417,18 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>42583</v>
+        <v>42767</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
@@ -3416,7 +3437,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>42614</v>
+        <v>42795</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3436,7 +3457,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>42644</v>
+        <v>42826</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3456,7 +3477,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>42675</v>
+        <v>42856</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -3476,13 +3497,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>42705</v>
-      </c>
-      <c r="B22" s="20"/>
+        <v>42887</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
@@ -3492,33 +3517,33 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>48</v>
+      <c r="A23" s="40">
+        <v>42917</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>42736</v>
+        <v>42948</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3538,7 +3563,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>42767</v>
+        <v>42979</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3558,7 +3583,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>42795</v>
+        <v>43009</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3578,7 +3603,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>42826</v>
+        <v>43040</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3598,13 +3623,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>42856</v>
-      </c>
-      <c r="B28" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>3</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
@@ -3617,32 +3646,30 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
-        <v>42887</v>
+      <c r="A29" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="9"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>42917</v>
+        <v>43101</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3662,7 +3689,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>42948</v>
+        <v>43132</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3682,9 +3709,11 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>42979</v>
-      </c>
-      <c r="B32" s="20"/>
+        <v>43160</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
@@ -3702,9 +3731,11 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>43009</v>
-      </c>
-      <c r="B33" s="20"/>
+        <v>43191</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
@@ -3722,7 +3753,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>43040</v>
+        <v>43221</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3742,15 +3773,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>43070</v>
+        <v>43252</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -3763,50 +3792,54 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="40">
+        <v>43282</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="49">
+        <v>43290</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
-        <v>43101</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A37" s="40"/>
+      <c r="B37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>43132</v>
+        <v>43313</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3826,15 +3859,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>43160</v>
+        <v>43344</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
-      <c r="D39" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
@@ -3848,15 +3879,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43191</v>
+        <v>43374</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -3870,9 +3899,11 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>43405</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
@@ -3883,82 +3914,90 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>2</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A42" s="40"/>
+      <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="39"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39">
+        <v>2</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>43282</v>
+        <v>43435</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>5</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H43" s="39">
-        <v>1</v>
-      </c>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="49">
-        <v>43290</v>
-      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A44" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J44" s="11"/>
-      <c r="K44" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>43313</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>43466</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -3972,31 +4011,33 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
-        <v>43344</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A46" s="40"/>
+      <c r="B46" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>43374</v>
+        <v>43497</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4016,10 +4057,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>43405</v>
+        <v>43525</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -4031,50 +4072,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="39">
-        <v>2</v>
-      </c>
+      <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>43556</v>
+      </c>
       <c r="B49" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20" t="s">
-        <v>59</v>
+      <c r="K49" s="49" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39">
-        <v>5</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -4084,37 +4125,35 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
-        <v>46</v>
+      <c r="A51" s="40">
+        <v>43617</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>63</v>
-      </c>
+        <v>43647</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
@@ -4128,35 +4167,35 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="13"/>
+      <c r="A53" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>43497</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>43709</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -4170,39 +4209,35 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40">
-        <v>43525</v>
-      </c>
+      <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1.25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>43556</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>43739</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
@@ -4213,21 +4248,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H56" s="39">
-        <v>1</v>
-      </c>
+      <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="49" t="s">
-        <v>68</v>
-      </c>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>43586</v>
+        <v>43770</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -4239,22 +4270,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="39">
+        <v>1</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20" t="s">
-        <v>65</v>
+      <c r="K57" s="50">
+        <v>43787</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>43617</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>43800</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="39">
+        <v>5</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -4267,28 +4304,30 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
-        <v>43647</v>
+      <c r="A59" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>43678</v>
+        <v>43831</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4308,11 +4347,9 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>43709</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>64</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
@@ -4326,39 +4363,41 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K61" s="50"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="13"/>
+      <c r="A62" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>43739</v>
-      </c>
-      <c r="B63" s="20"/>
+        <v>43922</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>5</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4372,11 +4411,9 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>43952</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
@@ -4387,28 +4424,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H64" s="39">
-        <v>1</v>
-      </c>
+      <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="50">
-        <v>43787</v>
-      </c>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>43983</v>
+      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39">
-        <v>5</v>
-      </c>
+      <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4421,30 +4450,28 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
-        <v>45</v>
+      <c r="A66" s="40">
+        <v>44013</v>
       </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
-      <c r="E66" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>43831</v>
+        <v>44044</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4464,7 +4491,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4480,11 +4507,11 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="50"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>43891</v>
+        <v>44105</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4504,17 +4531,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39">
-        <v>5</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4528,7 +4551,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>43952</v>
+        <v>44166</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4547,28 +4570,30 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40">
-        <v>43983</v>
+      <c r="A72" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4588,9 +4613,11 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>44228</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -4604,11 +4631,13 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>44075</v>
+        <v>44256</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
@@ -4628,9 +4657,11 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>44287</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
@@ -4641,14 +4672,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="39">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="50">
+        <v>44347</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44136</v>
+        <v>44317</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4668,7 +4703,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44166</v>
+        <v>44348</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4687,30 +4722,28 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="48" t="s">
-        <v>44</v>
+      <c r="A79" s="40">
+        <v>44378</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
-      <c r="E79" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44197</v>
+        <v>44409</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4730,11 +4763,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>69</v>
-      </c>
+        <v>44440</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -4748,13 +4779,11 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>44256</v>
+        <v>44470</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4774,11 +4803,9 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
@@ -4789,24 +4816,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="50">
-        <v>44347</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>44317</v>
-      </c>
-      <c r="B84" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -4816,42 +4843,46 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="50">
+        <v>44547</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="39"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39">
+        <v>3</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4859,28 +4890,30 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40">
-        <v>44409</v>
+      <c r="A87" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C87" s="13"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H87" s="39"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>44440</v>
+        <v>44562</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -4900,9 +4933,11 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>44593</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
@@ -4913,44 +4948,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>44967</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>44621</v>
+      </c>
+      <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39">
-        <v>2</v>
-      </c>
+      <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
@@ -4960,77 +4995,75 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="13"/>
+      <c r="A92" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39">
-        <v>1</v>
-      </c>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="50">
-        <v>44547</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>44682</v>
+      </c>
       <c r="B93" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
-        <v>43</v>
+      <c r="A94" s="40">
+        <v>44713</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
-      <c r="E94" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
-      <c r="I94" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5050,11 +5083,9 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -5065,38 +5096,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H96" s="39">
-        <v>1</v>
-      </c>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>44805</v>
+      </c>
       <c r="B97" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20" t="s">
-        <v>73</v>
+      <c r="K97" s="49">
+        <v>44812</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>44621</v>
+        <v>44835</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -5116,7 +5149,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>44652</v>
+        <v>44866</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5136,15 +5169,17 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>44682</v>
+        <v>44896</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>4</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
@@ -5155,23 +5190,23 @@
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D101" s="39"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39">
+        <v>1</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -5179,19 +5214,17 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40">
-        <v>44743</v>
+      <c r="A102" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5200,7 +5233,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>44774</v>
+        <v>44927</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -5220,10 +5253,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>44805</v>
+        <v>44958</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -5235,29 +5268,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H104" s="39">
-        <v>1</v>
-      </c>
+      <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="49">
-        <v>44812</v>
+      <c r="K104" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -5266,18 +5295,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>44866</v>
+        <v>45017</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C106" s="13"/>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -5286,37 +5313,27 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D107" s="39">
-        <v>4</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="A108" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
@@ -5332,18 +5349,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -5352,31 +5367,25 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5394,7 +5403,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5412,7 +5421,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5430,7 +5439,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5448,7 +5457,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5466,7 +5475,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5484,7 +5493,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5502,7 +5511,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5520,7 +5529,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5538,7 +5547,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5556,7 +5565,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5573,9 +5582,7 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>45323</v>
-      </c>
+      <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5591,9 +5598,7 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40">
-        <v>45352</v>
-      </c>
+      <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5609,9 +5614,7 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40">
-        <v>45383</v>
-      </c>
+      <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5627,9 +5630,7 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40">
-        <v>45413</v>
-      </c>
+      <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5645,9 +5646,7 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40">
-        <v>45444</v>
-      </c>
+      <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5663,9 +5662,7 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40">
-        <v>45474</v>
-      </c>
+      <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5825,116 +5822,20 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="43"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="39"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="39"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5982,7 +5883,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6042,12 +5943,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.25</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>

--- a/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
+++ b/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310F3E5-4DC2-4EDD-8865-7BE781A7D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -292,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1155,7 +1154,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1197,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1261,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1321,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1387,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1450,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1548,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1607,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1672,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1790,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1976,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2042,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2100,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2166,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2222,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2297,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2340,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2406,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2462,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2560,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2623,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,25 +2689,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2720,13 +2719,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2735,14 +2734,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3046,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3056,7 +3055,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3064,34 +3063,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K143"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3111,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3132,7 +3131,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3154,7 +3153,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3162,7 +3161,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3175,7 +3174,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3192,7 +3191,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3236,7 +3235,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.75</v>
+        <v>71.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3246,12 +3245,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>87.75</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42583</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>42614</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>42644</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42675</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>42705</v>
       </c>
@@ -3373,7 +3372,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>48</v>
       </c>
@@ -3395,7 +3394,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42736</v>
       </c>
@@ -3415,7 +3414,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42767</v>
       </c>
@@ -3435,7 +3434,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42795</v>
       </c>
@@ -3455,7 +3454,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42826</v>
       </c>
@@ -3475,7 +3474,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42856</v>
       </c>
@@ -3495,7 +3494,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42887</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42917</v>
       </c>
@@ -3541,7 +3540,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42948</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42979</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43009</v>
       </c>
@@ -3601,7 +3600,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43040</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43070</v>
       </c>
@@ -3645,7 +3644,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>47</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43101</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43132</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43160</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43191</v>
       </c>
@@ -3751,7 +3750,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43221</v>
       </c>
@@ -3771,7 +3770,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43252</v>
       </c>
@@ -3791,7 +3790,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43282</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>55</v>
@@ -3837,7 +3836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43313</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43344</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43374</v>
       </c>
@@ -3897,7 +3896,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43405</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3945,7 +3944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43435</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43466</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>64</v>
@@ -4035,7 +4034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43497</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43525</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43556</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43586</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43617</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43647</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43678</v>
       </c>
@@ -4189,7 +4188,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43709</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>64</v>
@@ -4233,7 +4232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43739</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43770</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43800</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>45</v>
       </c>
@@ -4325,7 +4324,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43831</v>
       </c>
@@ -4345,7 +4344,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43862</v>
       </c>
@@ -4365,7 +4364,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="50"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43891</v>
       </c>
@@ -4385,7 +4384,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43922</v>
       </c>
@@ -4409,7 +4408,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43952</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43983</v>
       </c>
@@ -4449,7 +4448,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44013</v>
       </c>
@@ -4469,7 +4468,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44044</v>
       </c>
@@ -4489,7 +4488,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44075</v>
       </c>
@@ -4509,7 +4508,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44105</v>
       </c>
@@ -4529,7 +4528,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44136</v>
       </c>
@@ -4549,7 +4548,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -4569,7 +4568,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>44</v>
       </c>
@@ -4591,7 +4590,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -4655,7 +4654,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44317</v>
       </c>
@@ -4701,7 +4700,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44348</v>
       </c>
@@ -4721,7 +4720,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44378</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -4761,7 +4760,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -4781,7 +4780,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -4801,7 +4800,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44501</v>
       </c>
@@ -4821,7 +4820,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44531</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>54</v>
@@ -4869,7 +4868,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>82</v>
@@ -4889,7 +4888,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>43</v>
       </c>
@@ -4911,7 +4910,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44562</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44593</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>52</v>
@@ -4977,7 +4976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44621</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44652</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44682</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44713</v>
       </c>
@@ -5061,7 +5060,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44743</v>
       </c>
@@ -5081,7 +5080,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44774</v>
       </c>
@@ -5101,7 +5100,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44805</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44835</v>
       </c>
@@ -5147,7 +5146,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44866</v>
       </c>
@@ -5167,7 +5166,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44896</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>83</v>
@@ -5213,7 +5212,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>78</v>
       </c>
@@ -5231,7 +5230,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44927</v>
       </c>
@@ -5251,7 +5250,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44958</v>
       </c>
@@ -5275,43 +5274,47 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44986</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45017</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45047</v>
       </c>
@@ -5329,7 +5332,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45078</v>
       </c>
@@ -5347,7 +5350,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45108</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45139</v>
       </c>
@@ -5383,7 +5386,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45170</v>
       </c>
@@ -5401,7 +5404,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45200</v>
       </c>
@@ -5419,7 +5422,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45231</v>
       </c>
@@ -5437,7 +5440,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45261</v>
       </c>
@@ -5455,7 +5458,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45292</v>
       </c>
@@ -5473,7 +5476,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45323</v>
       </c>
@@ -5491,7 +5494,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45352</v>
       </c>
@@ -5509,7 +5512,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45383</v>
       </c>
@@ -5527,7 +5530,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45413</v>
       </c>
@@ -5545,7 +5548,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45444</v>
       </c>
@@ -5563,7 +5566,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45474</v>
       </c>
@@ -5581,7 +5584,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5597,7 +5600,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5613,7 +5616,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5629,7 +5632,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5645,7 +5648,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5661,7 +5664,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5677,7 +5680,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5693,7 +5696,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5709,7 +5712,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5725,7 +5728,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5741,7 +5744,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5757,7 +5760,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5773,7 +5776,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5789,7 +5792,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5805,7 +5808,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5821,7 +5824,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5852,10 +5855,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5878,7 +5881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5886,21 +5889,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5913,7 +5916,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5962,17 +5965,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5993,7 +5996,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6691,7 +6694,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6700,7 +6703,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6709,7 +6712,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6718,7 +6721,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6727,7 +6730,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6736,7 +6739,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6745,7 +6748,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6754,7 +6757,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6763,7 +6766,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6772,7 +6775,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6781,7 +6784,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6790,7 +6793,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6799,7 +6802,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6808,7 +6811,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6817,7 +6820,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6826,7 +6829,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6835,7 +6838,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6853,7 +6856,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6862,7 +6865,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6871,7 +6874,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6880,7 +6883,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6889,7 +6892,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6898,7 +6901,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6907,7 +6910,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6916,7 +6919,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6925,7 +6928,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6934,7 +6937,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6943,7 +6946,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
+++ b/REGULAR/OJT/ABENA, WINNIE ROSE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>PARENTAL 5/17/23</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1200,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1264,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1324,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1453,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1551,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1610,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1675,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1718,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1793,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2045,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2103,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2169,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2225,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2300,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2343,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2409,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2465,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2563,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2626,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3075,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K143"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,7 +5321,9 @@
       <c r="A107" s="40">
         <v>45047</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
@@ -5330,7 +5335,9 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
